--- a/biology/Botanique/Faux-Indigo_blanchissant/Faux-Indigo_blanchissant.xlsx
+++ b/biology/Botanique/Faux-Indigo_blanchissant/Faux-Indigo_blanchissant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amorpha canescens est un arbrisseau originaire d'Amérique du Nord de la famille des Fabacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce compte un synonyme : Amorpha brachycarpa E.J.Palmer
 Elle compte aussi un homonyme : Amorpha canescens Nutt. (1813).
@@ -547,12 +561,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Amorpha canescens est un petit arbuste caduc de moins d'un mètre de haut et à port étalé.
 Ses feuilles sont composées, imparipennées, très allongées, avec de nombreux folioles (plus de vingt) au court pédicelle. Elles sont légèrement aromatiques.
 Ses fleurs, nombreuses sur des inflorescences en épi, sont violettes. Elles s'épanouissent de mai à juillet. Comme toutes les espèces du genre, elles ne comportent qu'un pétale (l'étendard) enveloppant le pistil et les étamines.
-Cette espèce compte 20 chromosomes[1].
+Cette espèce compte 20 chromosomes.
 </t>
         </is>
       </c>
@@ -581,7 +597,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Amorpha canescens est originaire des États-Unis.
 Il supporte un climat assez rigoureux et se développe préférentiellement en terrain léger se ressuyant rapidement.
@@ -614,7 +632,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Amorpha canescens se diffuse assez rapidement en France comme plante ornementale vivace, florifère et de petite dimension, qui croît en terrains neutres ou basiques, bien drainés, ensoleillés ou légèrement ombragés.
 Cette plante a été utilisée pour produire un colorant bleu.
